--- a/Home work 2/Cellphone_test_matrix.xlsx
+++ b/Home work 2/Cellphone_test_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a-ast\Desktop\QA school\Home work 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5E152A-C5E8-418C-AE31-DE4299337F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB09763F-1E97-440C-B265-77A8CDAECCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3A70FB8B-5B53-4EA1-ABFD-453A9D4694E2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Кол-во телефонов</t>
   </si>
@@ -56,27 +56,15 @@
     <t>Тесты</t>
   </si>
   <si>
-    <t>&lt;10</t>
-  </si>
-  <si>
-    <t>&gt;10</t>
-  </si>
-  <si>
     <t>.=10</t>
   </si>
   <si>
     <t>&lt;=20000</t>
   </si>
   <si>
-    <t>&gt;=30000</t>
-  </si>
-  <si>
     <t>&lt;=30000</t>
   </si>
   <si>
-    <t>&lt;=7500</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ожидаемый результат - скидка </t>
   </si>
   <si>
@@ -84,14 +72,25 @@
   </si>
   <si>
     <t>Отклонено</t>
+  </si>
+  <si>
+    <t>&gt;7500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -119,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -142,19 +141,306 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -470,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAC43F3-53D9-4341-BA66-31CE409DE8B0}">
-  <dimension ref="B2:W12"/>
+  <dimension ref="B1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="K2" sqref="K2:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,466 +767,256 @@
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="23" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2">
+      <c r="E2" s="6"/>
+      <c r="F2" s="22">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="26">
         <v>2</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="24">
         <v>3</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="26">
         <v>4</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="24">
         <v>5</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="26">
         <v>6</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="26">
         <v>7</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="26">
         <v>8</v>
       </c>
-      <c r="N2" s="4">
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="23">
+        <v>10</v>
+      </c>
+      <c r="G3" s="27">
+        <v>10</v>
+      </c>
+      <c r="H3" s="25">
+        <v>10</v>
+      </c>
+      <c r="I3" s="27">
+        <v>10</v>
+      </c>
+      <c r="J3" s="25">
+        <v>10</v>
+      </c>
+      <c r="K3" s="27">
+        <v>10</v>
+      </c>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27">
         <v>9</v>
       </c>
-      <c r="O2" s="4">
+      <c r="M4" s="27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="23">
+        <v>20000</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27">
+        <v>20000</v>
+      </c>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="27">
+        <v>31000</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="25">
+        <v>30000</v>
+      </c>
+      <c r="I7" s="27"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="27">
+        <v>30001</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="25">
+        <v>7501</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="27">
+        <v>7500</v>
+      </c>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+    </row>
+    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="4">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="G11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="4">
-        <v>13</v>
-      </c>
-      <c r="S2" s="4">
-        <v>14</v>
-      </c>
-      <c r="T2" s="4">
-        <v>15</v>
-      </c>
-      <c r="U2" s="4">
-        <v>16</v>
-      </c>
-      <c r="V2" s="4">
-        <v>17</v>
-      </c>
-      <c r="W2" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2">
-        <v>10</v>
-      </c>
-      <c r="K3" s="4">
-        <v>10</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2">
-        <v>9</v>
-      </c>
-      <c r="M4" s="2">
-        <v>9</v>
-      </c>
-      <c r="N4" s="2">
-        <v>9</v>
-      </c>
-      <c r="O4" s="2">
-        <v>9</v>
-      </c>
-      <c r="P4" s="2">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>9</v>
-      </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2">
+      <c r="H11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="2">
+      <c r="I11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="2">
-        <v>11</v>
-      </c>
-      <c r="U5" s="2">
-        <v>11</v>
-      </c>
-      <c r="V5" s="2">
-        <v>11</v>
-      </c>
-      <c r="W5" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2">
-        <v>20000</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2">
-        <v>20000</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2">
-        <v>20000</v>
-      </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>31000</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2">
-        <v>31000</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2">
-        <v>31000</v>
-      </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
+      <c r="K11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
-        <v>30000</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2">
-        <v>30000</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2">
-        <v>30000</v>
-      </c>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2">
-        <v>30001</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2">
-        <v>30001</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2">
-        <v>30001</v>
-      </c>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2">
-        <v>7500</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2">
-        <v>7500</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2">
-        <v>7500</v>
-      </c>
-      <c r="W10" s="2"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2">
-        <v>7499</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2">
-        <v>7499</v>
-      </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2">
-        <v>7499</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="V12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="W12" s="6" t="s">
-        <v>16</v>
+      <c r="L11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B6:C11"/>
-    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B5:C10"/>
+    <mergeCell ref="B11:E11"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D6:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>